--- a/spliced/falling/2023-03-25_17-58-38/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-38/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.01221730492331775</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0730371475219726</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.515730261802673</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.252272367477417</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.01935332099145098</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.003554125020111108</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.106012884151741</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-38/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-38/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.078746795654297</v>
+        <v>-1.181560516357422</v>
       </c>
       <c r="D2" t="n">
-        <v>1.204861640930176</v>
+        <v>1.240549564361572</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6440812349319458</v>
+        <v>-0.5883253216743469</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0572686158120632</v>
+        <v>0.008163382383910248</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3712533414363861</v>
+        <v>-0.07067988338795567</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.058643065392971</v>
+        <v>-0.05231227912008755</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.571155071258545</v>
+        <v>-1.229650020599365</v>
       </c>
       <c r="D3" t="n">
-        <v>1.288459777832031</v>
+        <v>1.595798969268799</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5561246871948242</v>
+        <v>-0.7779194116592407</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1334879455918612</v>
+        <v>-0.06663984263485132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2170098776167092</v>
+        <v>-0.06482113017277281</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09671107679605455</v>
+        <v>-0.02257424863902029</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.56222677230835</v>
+        <v>-0.2790107727050781</v>
       </c>
       <c r="D4" t="n">
-        <v>1.121483325958252</v>
+        <v>1.227867126464844</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1114475727081298</v>
+        <v>-1.016065120697022</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05985091050917481</v>
+        <v>-0.005289537662809526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1304891434582799</v>
+        <v>-0.05883742868900297</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.121909264813769</v>
+        <v>0.1704730540513992</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.141444206237793</v>
+        <v>-1.14784574508667</v>
       </c>
       <c r="D5" t="n">
-        <v>1.122160911560059</v>
+        <v>1.330484867095947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2474624365568161</v>
+        <v>-0.8695551156997681</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05091006410392845</v>
+        <v>0.00837163017554712</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1894376386295665</v>
+        <v>-0.05375613881783047</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5621209686452691</v>
+        <v>0.2080968008799986</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.447634696960449</v>
+        <v>-1.288122177124023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8090605735778809</v>
+        <v>1.133394718170166</v>
       </c>
       <c r="E6" t="n">
-        <v>2.089949369430542</v>
+        <v>-0.7701815962791443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0685279762203039</v>
+        <v>-0.05617183616215521</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7451306256380917</v>
+        <v>0.01428591663187196</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.788169232281768</v>
+        <v>0.0969609718092462</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.48740816116333</v>
+        <v>-1.425555229187011</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6178178787231445</v>
+        <v>1.231297016143799</v>
       </c>
       <c r="E7" t="n">
-        <v>2.327399969100952</v>
+        <v>-0.6422767043113708</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.745783193544906</v>
+        <v>0.0280998013913631</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.762346484444355</v>
+        <v>0.0762054398655891</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.756598580967298</v>
+        <v>-0.008552113547921099</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.30517578125</v>
+        <v>-1.529905319213867</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4891290664672851</v>
+        <v>1.149116039276123</v>
       </c>
       <c r="E8" t="n">
-        <v>2.537726402282715</v>
+        <v>-0.9077204465866088</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1823294054378186</v>
+        <v>0.06225272437388239</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2232989397915999</v>
+        <v>0.09189357202161434</v>
       </c>
       <c r="H8" t="n">
-        <v>1.138486255298958</v>
+        <v>-0.06575131636451573</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3.007162570953369</v>
+        <v>-1.152251720428467</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.502803325653076</v>
+        <v>1.056320667266846</v>
       </c>
       <c r="E9" t="n">
-        <v>3.441044807434082</v>
+        <v>-0.8245069980621338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5607048923319088</v>
+        <v>0.04992435195229265</v>
       </c>
       <c r="G9" t="n">
-        <v>2.322676355188556</v>
+        <v>0.03760986301031981</v>
       </c>
       <c r="H9" t="n">
-        <v>2.414278323000138</v>
+        <v>-0.06972193650223989</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.378014087677002</v>
+        <v>-1.123115062713623</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.04712963104248</v>
+        <v>1.085736274719239</v>
       </c>
       <c r="E10" t="n">
-        <v>5.235954284667969</v>
+        <v>-0.7493376731872559</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7038278525525871</v>
+        <v>0.03176499361341648</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.9540881785479458</v>
+        <v>-0.02544809200546947</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1982396515932949</v>
+        <v>0.0004164989699015492</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-6.576094627380371</v>
+        <v>-1.394256114959717</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4697372913360595</v>
+        <v>1.270269870758057</v>
       </c>
       <c r="E11" t="n">
-        <v>2.406523942947388</v>
+        <v>-0.8571128845214844</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2033903666517955</v>
+        <v>0.03686016493222929</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4635634205558086</v>
+        <v>-0.01995030405338506</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1531466895883727</v>
+        <v>0.01384165091440073</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.52888298034668</v>
+        <v>-1.345842838287354</v>
       </c>
       <c r="D12" t="n">
-        <v>7.144853115081787</v>
+        <v>1.367433071136475</v>
       </c>
       <c r="E12" t="n">
-        <v>-10.8126277923584</v>
+        <v>-0.7304041385650635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07737163657491758</v>
+        <v>0.01492454890500421</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3377668315714036</v>
+        <v>0.02186619833281094</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5267046527429067</v>
+        <v>0.002901610000249519</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-10.79609775543213</v>
+        <v>-1.356554985046387</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.548766374588013</v>
+        <v>1.367568492889404</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7228314876556396</v>
+        <v>-0.6971900463104248</v>
       </c>
       <c r="F13" t="n">
-        <v>0.437226802110672</v>
+        <v>-0.02151911604133509</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.076497316360474</v>
+        <v>0.04574547572569409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.305127203464508</v>
+        <v>-0.03826237769151855</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0029077529907226</v>
+        <v>-1.285661697387695</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2878659963607788</v>
+        <v>1.301629066467285</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002394676208496</v>
+        <v>-0.5075737237930298</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3028364533727822</v>
+        <v>-0.01338350129398431</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5765596194700771</v>
+        <v>0.03186217543076381</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2633939818902439</v>
+        <v>-0.08599316531961611</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-3.11443567276001</v>
+        <v>-1.321344375610352</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3510211706161499</v>
+        <v>1.155209541320801</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.4145855903625488</v>
+        <v>-0.5763433575630188</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01123159040104305</v>
+        <v>0.02753058617765249</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1864527369087388</v>
+        <v>0.01243943788788525</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3065016323869878</v>
+        <v>-0.08503521572459828</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.77131175994873</v>
+        <v>-1.26480770111084</v>
       </c>
       <c r="D16" t="n">
-        <v>1.03003716468811</v>
+        <v>1.153616428375244</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.024044990539551</v>
+        <v>-0.6878960132598877</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1954074610363352</v>
+        <v>0.02497605843977489</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02307404306801872</v>
+        <v>0.07183220271359811</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3273265957832336</v>
+        <v>-0.08203642476688736</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.573332786560059</v>
+        <v>-0.8195595741271973</v>
       </c>
       <c r="D17" t="n">
-        <v>3.554859638214112</v>
+        <v>1.118548393249511</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6985998153686523</v>
+        <v>-0.9026113748550416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2357523305849597</v>
+        <v>0.02700301970947864</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05979537591338158</v>
+        <v>0.2729595926674929</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.4510545784776857</v>
+        <v>-0.1162587641315027</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3884191513061523</v>
+        <v>-1.078746795654297</v>
       </c>
       <c r="D18" t="n">
-        <v>2.177812099456787</v>
+        <v>1.204861640930176</v>
       </c>
       <c r="E18" t="n">
-        <v>1.914549231529236</v>
+        <v>-0.6440812349319458</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1893821060657501</v>
+        <v>0.0572686158120632</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03949799151583152</v>
+        <v>0.3712533414363861</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3617849458347671</v>
+        <v>-0.058643065392971</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3063011169433594</v>
+        <v>-1.571155071258545</v>
       </c>
       <c r="D19" t="n">
-        <v>1.13384485244751</v>
+        <v>1.288459777832031</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.188247680664062</v>
+        <v>-0.5561246871948242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1171195276758888</v>
+        <v>-0.1334879455918612</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02839135175401504</v>
+        <v>0.2170098776167092</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.09480906345627552</v>
+        <v>0.09671107679605455</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.002084732055664</v>
+        <v>-1.56222677230835</v>
       </c>
       <c r="D20" t="n">
-        <v>2.598645210266113</v>
+        <v>1.121483325958252</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.077527165412903</v>
+        <v>-0.1114475727081298</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02834970165382716</v>
+        <v>-0.05985091050917481</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.09689156033776021</v>
+        <v>0.1304891434582799</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05654668266122977</v>
+        <v>-0.121909264813769</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.68853759765625</v>
+        <v>-1.141444206237793</v>
       </c>
       <c r="D21" t="n">
-        <v>1.860642552375793</v>
+        <v>1.122160911560059</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0599948167800903</v>
+        <v>0.2474624365568161</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0001110661436211444</v>
+        <v>-0.05091006410392845</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06830584168942136</v>
+        <v>0.1894376386295665</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01221730492331775</v>
+        <v>-0.5621209686452691</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.447634696960449</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8090605735778809</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.089949369430542</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0685279762203039</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.7451306256380917</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.788169232281768</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.48740816116333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.6178178787231445</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.327399969100952</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.745783193544906</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.762346484444355</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.756598580967298</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.30517578125</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.4891290664672851</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.537726402282715</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1823294054378186</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2232989397915999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.138486255298958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.007162570953369</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.502803325653076</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.441044807434082</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5607048923319088</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.322676355188556</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.414278323000138</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.378014087677002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.04712963104248</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.235954284667969</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.7038278525525871</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.9540881785479458</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.1982396515932949</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-6.576094627380371</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4697372913360595</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.406523942947388</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2033903666517955</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.4635634205558086</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1531466895883727</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8.52888298034668</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.144853115081787</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-10.8126277923584</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.07737163657491758</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.3377668315714036</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5267046527429067</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-10.79609775543213</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.548766374588013</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.7228314876556396</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.437226802110672</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1.076497316360474</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.305127203464508</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0029077529907226</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2878659963607788</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.002394676208496</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3028364533727822</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.5765596194700771</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.2633939818902439</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.11443567276001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3510211706161499</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.4145855903625488</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.01123159040104305</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.1864527369087388</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3065016323869878</v>
       </c>
     </row>
   </sheetData>
